--- a/medicine/Pharmacie/1947_en_santé_et_médecine/1947_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1947_en_santé_et_médecine/1947_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1947_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1947_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1947 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1947_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1947_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le premier antithyroïdien, le propylthiouracile, est approuvé par la FDA aux États-Unis[1].
-La première utilisation d'un défibrillateur sur des sujets humains est effectuée par Claude Beck, professeur de chirurgie à l'université Case Western Reserve[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le premier antithyroïdien, le propylthiouracile, est approuvé par la FDA aux États-Unis.
+La première utilisation d'un défibrillateur sur des sujets humains est effectuée par Claude Beck, professeur de chirurgie à l'université Case Western Reserve.
 Fondation des Entretiens de Bichat.</t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1947_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1947_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Nobel de physiologie ou médecine : Carl Ferdinand Cori (1896-1984), Gerty Theresa Cori née Radnitz (1896-1957), Bernardo Alberto Houssay (1887-1971).
 Prix Albert-Lasker pour la recherche médicale fondamentale : Oswald Avery (1877-1955), Thomas Francis Jr. (en) (1900-1969), Homer Smith (en) (1895-1962).
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1947_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1947_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>19 février : Raffaele Calabrò (it), médecin et homme politique italien.
 24 février : Max Cynader (en), ophtalmologiste canadien.
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1947_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1947_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +641,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>8 janvier : Gaston Roussel (né en 1877), vétérinaire, médecin, industriel et chef d'entreprise français.
 10 janvier : Hanns Sachs (né en 1881), psychanalyste austro-américain.
